--- a/data/penyakit.xlsx
+++ b/data/penyakit.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludfyrahman/Sites/skripsi/TI/naive_bayes/pakar_ayam/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514A917D-095C-6C44-9F52-67F98B4F1FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8931133-8771-954F-B1C5-BF54A6C01236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{39A52D73-9901-CB40-8D17-3A70F0730894}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -659,12 +659,13 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
